--- a/딥러닝할 식재료 정리 v1.1.xlsx
+++ b/딥러닝할 식재료 정리 v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\KPU\종합설계\gitHub\KPU-LeeDJ_ParkBN_YuHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C16386-DA4E-4B3C-BE1E-393172E37FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726F249-4B49-4148-A1D7-87911BB07133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{8BCBD5EC-3F4D-5F48-A796-FAB6AB22E564}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="166">
   <si>
     <t>농산물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,58 @@
   </si>
   <si>
     <t>품 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shishito pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangerine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sesame leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepherd's purse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allium monanthum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellflower root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedum sarmentosum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +615,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +634,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -606,13 +670,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +730,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00135767-4117-3C49-97AC-9F38A9C6C5AB}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -980,668 +1069,708 @@
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="5"/>
-    <col min="5" max="5" width="10.7265625" style="3"/>
-    <col min="7" max="7" width="10.7265625" style="5"/>
-    <col min="8" max="8" width="10.7265625" style="3"/>
-    <col min="10" max="10" width="10.7265625" style="5"/>
-    <col min="11" max="11" width="10.7265625" style="3"/>
+    <col min="4" max="4" width="19.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="3"/>
+    <col min="8" max="8" width="10.7265625" style="5"/>
+    <col min="9" max="9" width="10.7265625" style="3"/>
+    <col min="11" max="11" width="10.7265625" style="5"/>
+    <col min="12" max="12" width="10.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11">
         <f>COUNTIF(C2:C142,"=농산물")</f>
         <v>48</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <f>COUNTIF(C2:C142,"=축산물")</f>
         <v>17</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <f>COUNTIF(C2:C142,"=수산물")</f>
         <v>37</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <f>COUNTIF(C2:C142,"=가공식품")</f>
         <v>39</v>
       </c>
-      <c r="I2" s="11">
-        <f>SUM(E2:H2)</f>
+      <c r="J2" s="11">
+        <f>SUM(F2:I2)</f>
         <v>141</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C4" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C11" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C12" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C16" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C17" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C18" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C19" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C21" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C24" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C25" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C26" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C28" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C29" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C30" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C31" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C32" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C33" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C34" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C36" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C38" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C40" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C41" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C42" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C43" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C44" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C45" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C46" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C47" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1652,7 +1781,7 @@
       <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1663,7 +1792,7 @@
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1674,7 +1803,7 @@
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1685,7 +1814,7 @@
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1696,7 +1825,7 @@
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1707,7 +1836,7 @@
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1718,7 +1847,7 @@
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1729,7 +1858,7 @@
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1740,7 +1869,7 @@
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1751,7 +1880,7 @@
       <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1762,7 +1891,7 @@
       <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1773,7 +1902,7 @@
       <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1784,7 +1913,7 @@
       <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1795,7 +1924,7 @@
       <c r="B62" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1806,7 +1935,7 @@
       <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1817,7 +1946,7 @@
       <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1828,7 +1957,7 @@
       <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1839,7 +1968,7 @@
       <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1850,7 +1979,7 @@
       <c r="B67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1861,7 +1990,7 @@
       <c r="B68" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1872,7 +2001,7 @@
       <c r="B69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1883,7 +2012,7 @@
       <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1894,7 +2023,7 @@
       <c r="B71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1905,7 +2034,7 @@
       <c r="B72" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1916,7 +2045,7 @@
       <c r="B73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1927,7 +2056,7 @@
       <c r="B74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1938,7 +2067,7 @@
       <c r="B75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1949,7 +2078,7 @@
       <c r="B76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1960,7 +2089,7 @@
       <c r="B77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1971,7 +2100,7 @@
       <c r="B78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1982,7 +2111,7 @@
       <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1993,7 +2122,7 @@
       <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2004,7 +2133,7 @@
       <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2015,7 +2144,7 @@
       <c r="B82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2026,7 +2155,7 @@
       <c r="B83" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2037,7 +2166,7 @@
       <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2048,7 +2177,7 @@
       <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2059,7 +2188,7 @@
       <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2070,7 +2199,7 @@
       <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2081,7 +2210,7 @@
       <c r="B88" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2092,7 +2221,7 @@
       <c r="B89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2103,7 +2232,7 @@
       <c r="B90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2114,7 +2243,7 @@
       <c r="B91" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2125,7 +2254,7 @@
       <c r="B92" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2136,7 +2265,7 @@
       <c r="B93" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2147,7 +2276,7 @@
       <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2158,7 +2287,7 @@
       <c r="B95" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2169,7 +2298,7 @@
       <c r="B96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2180,7 +2309,7 @@
       <c r="B97" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2191,7 +2320,7 @@
       <c r="B98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2202,7 +2331,7 @@
       <c r="B99" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2213,7 +2342,7 @@
       <c r="B100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2224,7 +2353,7 @@
       <c r="B101" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2235,7 +2364,7 @@
       <c r="B102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2246,7 +2375,7 @@
       <c r="B103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2257,7 +2386,7 @@
       <c r="B104" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2268,7 +2397,7 @@
       <c r="B105" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2279,7 +2408,7 @@
       <c r="B106" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2290,7 +2419,7 @@
       <c r="B107" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2301,7 +2430,7 @@
       <c r="B108" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2312,7 +2441,7 @@
       <c r="B109" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2323,7 +2452,7 @@
       <c r="B110" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2334,7 +2463,7 @@
       <c r="B111" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2345,7 +2474,7 @@
       <c r="B112" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2356,7 +2485,7 @@
       <c r="B113" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2367,7 +2496,7 @@
       <c r="B114" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2378,7 +2507,7 @@
       <c r="B115" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2389,7 +2518,7 @@
       <c r="B116" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2400,7 +2529,7 @@
       <c r="B117" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2411,7 +2540,7 @@
       <c r="B118" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2422,7 +2551,7 @@
       <c r="B119" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2433,7 +2562,7 @@
       <c r="B120" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2444,7 +2573,7 @@
       <c r="B121" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2455,7 +2584,7 @@
       <c r="B122" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2466,7 +2595,7 @@
       <c r="B123" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2477,7 +2606,7 @@
       <c r="B124" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2488,7 +2617,7 @@
       <c r="B125" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2499,7 +2628,7 @@
       <c r="B126" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2510,7 +2639,7 @@
       <c r="B127" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2521,7 +2650,7 @@
       <c r="B128" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2532,7 +2661,7 @@
       <c r="B129" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2543,7 +2672,7 @@
       <c r="B130" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2554,7 +2683,7 @@
       <c r="B131" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2565,7 +2694,7 @@
       <c r="B132" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2576,7 +2705,7 @@
       <c r="B133" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2587,7 +2716,7 @@
       <c r="B134" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2598,7 +2727,7 @@
       <c r="B135" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2609,7 +2738,7 @@
       <c r="B136" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2620,7 +2749,7 @@
       <c r="B137" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2631,7 +2760,7 @@
       <c r="B138" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2642,7 +2771,7 @@
       <c r="B139" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2653,7 +2782,7 @@
       <c r="B140" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2664,7 +2793,7 @@
       <c r="B141" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2675,7 +2804,7 @@
       <c r="B142" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="16" t="s">
         <v>149</v>
       </c>
     </row>

--- a/딥러닝할 식재료 정리 v1.1.xlsx
+++ b/딥러닝할 식재료 정리 v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\KPU\종합설계\gitHub\KPU-LeeDJ_ParkBN_YuHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726F249-4B49-4148-A1D7-87911BB07133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F5E51-3607-4C8E-976F-77675713500A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{8BCBD5EC-3F4D-5F48-A796-FAB6AB22E564}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="226">
   <si>
     <t>농산물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,481 +82,754 @@
     <t>돈나물</t>
   </si>
   <si>
+    <t>무</t>
+  </si>
+  <si>
+    <t>미나리</t>
+  </si>
+  <si>
+    <t>바나나</t>
+  </si>
+  <si>
+    <t>방울토마토</t>
+  </si>
+  <si>
+    <t>배추</t>
+  </si>
+  <si>
+    <t>양송이버섯</t>
+  </si>
+  <si>
+    <t>팽이버섯</t>
+  </si>
+  <si>
+    <t>표고버섯</t>
+  </si>
+  <si>
+    <t>봄동</t>
+  </si>
+  <si>
+    <t>부추</t>
+  </si>
+  <si>
+    <t>브로콜리</t>
+  </si>
+  <si>
+    <t>사과</t>
+  </si>
+  <si>
+    <t>적상추</t>
+  </si>
+  <si>
+    <t>청상추</t>
+  </si>
+  <si>
+    <t>수박</t>
+  </si>
+  <si>
+    <t>숙주나물</t>
+  </si>
+  <si>
+    <t>시금치</t>
+  </si>
+  <si>
+    <t>실파</t>
+  </si>
+  <si>
+    <t>쌀</t>
+  </si>
+  <si>
+    <t>쑥갓</t>
+  </si>
+  <si>
+    <t>씀바귀</t>
+  </si>
+  <si>
+    <t>애호박</t>
+  </si>
+  <si>
+    <t>양배추</t>
+  </si>
+  <si>
+    <t>연근</t>
+  </si>
+  <si>
+    <t>열무</t>
+  </si>
+  <si>
+    <t>우거지</t>
+  </si>
+  <si>
+    <t>쪽파</t>
+  </si>
+  <si>
+    <t>참나물</t>
+  </si>
+  <si>
+    <t>치커리</t>
+  </si>
+  <si>
+    <t>콩나물</t>
+  </si>
+  <si>
+    <t>축산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살</t>
+  </si>
+  <si>
+    <t>닭날개</t>
+  </si>
+  <si>
+    <t>닭안심</t>
+  </si>
+  <si>
+    <t>계란</t>
+  </si>
+  <si>
+    <t>메추리알</t>
+  </si>
+  <si>
+    <t>돼지갈비</t>
+  </si>
+  <si>
+    <t>돼지등뼈(절단)</t>
+  </si>
+  <si>
+    <t>돼지등심</t>
+  </si>
+  <si>
+    <t>돼지목살</t>
+  </si>
+  <si>
+    <t>돼지삼겹</t>
+  </si>
+  <si>
+    <t>돼지안심</t>
+  </si>
+  <si>
+    <t>돼지앞다리</t>
+  </si>
+  <si>
+    <t>돼지뒷다리</t>
+  </si>
+  <si>
+    <t>육우사태</t>
+  </si>
+  <si>
+    <t>육우양지</t>
+  </si>
+  <si>
+    <t>육우홍두깨</t>
+  </si>
+  <si>
+    <t>수산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가자미</t>
+  </si>
+  <si>
+    <t>갈치</t>
+  </si>
+  <si>
+    <t>건미역</t>
+  </si>
+  <si>
+    <t>고등어</t>
+  </si>
+  <si>
+    <t>굴비</t>
+  </si>
+  <si>
+    <t>꽁치</t>
+  </si>
+  <si>
+    <t>꽃게</t>
+  </si>
+  <si>
+    <t>낙지</t>
+  </si>
+  <si>
+    <t>날치알</t>
+  </si>
+  <si>
+    <t>다시마</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>동태</t>
+  </si>
+  <si>
+    <t>동태포</t>
+  </si>
+  <si>
+    <t>매생이</t>
+  </si>
+  <si>
+    <t>멸치(국물용)</t>
+  </si>
+  <si>
+    <t>멸치(반찬용)</t>
+  </si>
+  <si>
+    <t>모시조개</t>
+  </si>
+  <si>
+    <t>물미역</t>
+  </si>
+  <si>
+    <t>물파래</t>
+  </si>
+  <si>
+    <t>미역줄기</t>
+  </si>
+  <si>
+    <t>민어</t>
+  </si>
+  <si>
+    <t>바지락</t>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>병어</t>
+  </si>
+  <si>
+    <t>삼치</t>
+  </si>
+  <si>
+    <t>새우</t>
+  </si>
+  <si>
+    <t>아귀</t>
+  </si>
+  <si>
+    <t>오징어</t>
+  </si>
+  <si>
+    <t>조기</t>
+  </si>
+  <si>
+    <t>쭈꾸미</t>
+  </si>
+  <si>
+    <t>참치</t>
+  </si>
+  <si>
+    <t>청어</t>
+  </si>
+  <si>
+    <t>코나리</t>
+  </si>
+  <si>
+    <t>톳나물</t>
+  </si>
+  <si>
+    <t>한치</t>
+  </si>
+  <si>
+    <t>해파리</t>
+  </si>
+  <si>
+    <t>홍합</t>
+  </si>
+  <si>
+    <t>가공식품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게맛살</t>
+  </si>
+  <si>
+    <t>고추장</t>
+  </si>
+  <si>
+    <t>고춧가루</t>
+  </si>
+  <si>
+    <t>곤약</t>
+  </si>
+  <si>
+    <t>구운김</t>
+  </si>
+  <si>
+    <t>김치</t>
+  </si>
+  <si>
+    <t>깐계란</t>
+  </si>
+  <si>
+    <t>깐메추리알</t>
+  </si>
+  <si>
+    <t>다진마늘</t>
+  </si>
+  <si>
+    <t>대두유</t>
+  </si>
+  <si>
+    <t>된장</t>
+  </si>
+  <si>
+    <t>떡볶이떡</t>
+  </si>
+  <si>
+    <t>멸치액젓</t>
+  </si>
+  <si>
+    <t>도토리묵</t>
+  </si>
+  <si>
+    <t>동부묵</t>
+  </si>
+  <si>
+    <t>청포묵</t>
+  </si>
+  <si>
+    <t>물엿</t>
+  </si>
+  <si>
+    <t>미림</t>
+  </si>
+  <si>
+    <t>밀가루</t>
+  </si>
+  <si>
+    <t>베이컨</t>
+  </si>
+  <si>
+    <t>부침,튀김가루</t>
+  </si>
+  <si>
+    <t>북어(절단)</t>
+  </si>
+  <si>
+    <t>비엔나소시지</t>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
+    <t>순대</t>
+  </si>
+  <si>
+    <t>순두부</t>
+  </si>
+  <si>
+    <t>옥수수통조림</t>
+  </si>
+  <si>
+    <t>양장피</t>
+  </si>
+  <si>
+    <t>어묵</t>
+  </si>
+  <si>
+    <t>전분</t>
+  </si>
+  <si>
+    <t>조미 오징어채</t>
+  </si>
+  <si>
+    <t>참기름</t>
+  </si>
+  <si>
+    <t>천사채</t>
+  </si>
+  <si>
+    <t>초고추장</t>
+  </si>
+  <si>
+    <t>두부</t>
+  </si>
+  <si>
+    <t>햄(김밥용)</t>
+  </si>
+  <si>
+    <t>허니머스타드소스</t>
+  </si>
+  <si>
+    <t>후춧가루</t>
+  </si>
+  <si>
+    <t>흰설탕</t>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공식품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순 번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shishito pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangerine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sesame leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepherd's purse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allium monanthum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellflower root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sedum sarmentosum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마늘쫑</t>
-  </si>
-  <si>
-    <t>무</t>
-  </si>
-  <si>
-    <t>미나리</t>
-  </si>
-  <si>
-    <t>바나나</t>
-  </si>
-  <si>
-    <t>방울토마토</t>
-  </si>
-  <si>
-    <t>배추</t>
-  </si>
-  <si>
-    <t>양송이버섯</t>
-  </si>
-  <si>
-    <t>팽이버섯</t>
-  </si>
-  <si>
-    <t>표고버섯</t>
-  </si>
-  <si>
-    <t>봄동</t>
-  </si>
-  <si>
-    <t>부추</t>
-  </si>
-  <si>
-    <t>브로콜리</t>
-  </si>
-  <si>
-    <t>사과</t>
-  </si>
-  <si>
-    <t>적상추</t>
-  </si>
-  <si>
-    <t>청상추</t>
-  </si>
-  <si>
-    <t>수박</t>
-  </si>
-  <si>
-    <t>숙주나물</t>
-  </si>
-  <si>
-    <t>시금치</t>
-  </si>
-  <si>
-    <t>실파</t>
-  </si>
-  <si>
-    <t>쌀</t>
-  </si>
-  <si>
-    <t>쑥갓</t>
-  </si>
-  <si>
-    <t>씀바귀</t>
-  </si>
-  <si>
-    <t>애호박</t>
-  </si>
-  <si>
-    <t>양배추</t>
-  </si>
-  <si>
-    <t>연근</t>
-  </si>
-  <si>
-    <t>열무</t>
-  </si>
-  <si>
-    <t>우거지</t>
-  </si>
-  <si>
-    <t>쪽파</t>
-  </si>
-  <si>
-    <t>참나물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garlic shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java waterdropwort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enoki mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiitake mushrooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델링</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broccoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red lettuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green lettuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean sprouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scallion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shallots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown daisy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ixeridium dentatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zucchini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese cabbage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotus root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>young summer radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물</t>
+  </si>
+  <si>
+    <t>pimpinella brachycarpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sesame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>참깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asian pak choy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청경채</t>
-  </si>
-  <si>
-    <t>치커리</t>
-  </si>
-  <si>
-    <t>콩나물</t>
-  </si>
-  <si>
-    <t>축산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭가슴살</t>
-  </si>
-  <si>
-    <t>닭날개</t>
-  </si>
-  <si>
-    <t>닭안심</t>
-  </si>
-  <si>
-    <t>계란</t>
-  </si>
-  <si>
-    <t>메추리알</t>
-  </si>
-  <si>
-    <t>돼지갈비</t>
-  </si>
-  <si>
-    <t>돼지등뼈(절단)</t>
-  </si>
-  <si>
-    <t>돼지등심</t>
-  </si>
-  <si>
-    <t>돼지목살</t>
-  </si>
-  <si>
-    <t>돼지삼겹</t>
-  </si>
-  <si>
-    <t>돼지안심</t>
-  </si>
-  <si>
-    <t>돼지앞다리</t>
-  </si>
-  <si>
-    <t>돼지뒷다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicory leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mung bean sprouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken breast raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken wings raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken tender breast raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quail eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork rib raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork back bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork loin raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork shoulder blade raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork belly raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork tenderloin raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork picnic raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork ham raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef sirloin raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>육우등심</t>
-  </si>
-  <si>
-    <t>육우사태</t>
-  </si>
-  <si>
-    <t>육우양지</t>
-  </si>
-  <si>
-    <t>육우홍두깨</t>
-  </si>
-  <si>
-    <t>수산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가자미</t>
-  </si>
-  <si>
-    <t>갈치</t>
-  </si>
-  <si>
-    <t>건미역</t>
-  </si>
-  <si>
-    <t>고등어</t>
-  </si>
-  <si>
-    <t>굴비</t>
-  </si>
-  <si>
-    <t>꽁치</t>
-  </si>
-  <si>
-    <t>꽃게</t>
-  </si>
-  <si>
-    <t>낙지</t>
-  </si>
-  <si>
-    <t>날치알</t>
-  </si>
-  <si>
-    <t>다시마</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>동태</t>
-  </si>
-  <si>
-    <t>동태포</t>
-  </si>
-  <si>
-    <t>매생이</t>
-  </si>
-  <si>
-    <t>멸치(국물용)</t>
-  </si>
-  <si>
-    <t>멸치(반찬용)</t>
-  </si>
-  <si>
-    <t>모시조개</t>
-  </si>
-  <si>
-    <t>물미역</t>
-  </si>
-  <si>
-    <t>물파래</t>
-  </si>
-  <si>
-    <t>미역줄기</t>
-  </si>
-  <si>
-    <t>민어</t>
-  </si>
-  <si>
-    <t>바지락</t>
-  </si>
-  <si>
-    <t>방어</t>
-  </si>
-  <si>
-    <t>병어</t>
-  </si>
-  <si>
-    <t>삼치</t>
-  </si>
-  <si>
-    <t>새우</t>
-  </si>
-  <si>
-    <t>아귀</t>
-  </si>
-  <si>
-    <t>오징어</t>
-  </si>
-  <si>
-    <t>조기</t>
-  </si>
-  <si>
-    <t>쭈꾸미</t>
-  </si>
-  <si>
-    <t>참치</t>
-  </si>
-  <si>
-    <t>청어</t>
-  </si>
-  <si>
-    <t>코나리</t>
-  </si>
-  <si>
-    <t>톳나물</t>
-  </si>
-  <si>
-    <t>한치</t>
-  </si>
-  <si>
-    <t>해파리</t>
-  </si>
-  <si>
-    <t>홍합</t>
-  </si>
-  <si>
-    <t>가공식품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게맛살</t>
-  </si>
-  <si>
-    <t>고추장</t>
-  </si>
-  <si>
-    <t>고춧가루</t>
-  </si>
-  <si>
-    <t>곤약</t>
-  </si>
-  <si>
-    <t>구운김</t>
-  </si>
-  <si>
-    <t>김치</t>
-  </si>
-  <si>
-    <t>깐계란</t>
-  </si>
-  <si>
-    <t>깐메추리알</t>
-  </si>
-  <si>
-    <t>다진마늘</t>
-  </si>
-  <si>
-    <t>대두유</t>
-  </si>
-  <si>
-    <t>된장</t>
-  </si>
-  <si>
-    <t>떡볶이떡</t>
-  </si>
-  <si>
-    <t>멸치액젓</t>
-  </si>
-  <si>
-    <t>도토리묵</t>
-  </si>
-  <si>
-    <t>동부묵</t>
-  </si>
-  <si>
-    <t>청포묵</t>
-  </si>
-  <si>
-    <t>물엿</t>
-  </si>
-  <si>
-    <t>미림</t>
-  </si>
-  <si>
-    <t>밀가루</t>
-  </si>
-  <si>
-    <t>베이컨</t>
-  </si>
-  <si>
-    <t>부침,튀김가루</t>
-  </si>
-  <si>
-    <t>북어(절단)</t>
-  </si>
-  <si>
-    <t>비엔나소시지</t>
-  </si>
-  <si>
-    <t>소금</t>
-  </si>
-  <si>
-    <t>순대</t>
-  </si>
-  <si>
-    <t>순두부</t>
-  </si>
-  <si>
-    <t>옥수수통조림</t>
-  </si>
-  <si>
-    <t>양장피</t>
-  </si>
-  <si>
-    <t>어묵</t>
-  </si>
-  <si>
-    <t>전분</t>
-  </si>
-  <si>
-    <t>조미 오징어채</t>
-  </si>
-  <si>
-    <t>참기름</t>
-  </si>
-  <si>
-    <t>천사채</t>
-  </si>
-  <si>
-    <t>초고추장</t>
-  </si>
-  <si>
-    <t>두부</t>
-  </si>
-  <si>
-    <t>햄(김밥용)</t>
-  </si>
-  <si>
-    <t>허니머스타드소스</t>
-  </si>
-  <si>
-    <t>후춧가루</t>
-  </si>
-  <si>
-    <t>흰설탕</t>
-  </si>
-  <si>
-    <t>가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가공식품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식재료명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순 번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품 목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cucumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eggplant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>potato</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shishito pepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot pepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tangerine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sesame leaf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shepherd's purse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allium monanthum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carrot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bellflower root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sedum sarmentosum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef shank raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef brisket raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flounder</t>
+  </si>
+  <si>
+    <t>hairtail fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dried wakame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mackerel fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a dried yellow corvina fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sauries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small octopus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly fish caviar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laminaria japonica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cod fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen pollack fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -614,8 +887,52 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +1066,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00135767-4117-3C49-97AC-9F38A9C6C5AB}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1069,7 +1404,7 @@
     <col min="1" max="1" width="8" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" style="3"/>
     <col min="8" max="8" width="10.7265625" style="5"/>
@@ -1080,32 +1415,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="1"/>
@@ -1115,13 +1450,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
       </c>
       <c r="F2" s="11">
         <f>COUNTIF(C2:C142,"=농산물")</f>
@@ -1153,10 +1491,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" s="2"/>
       <c r="I3" s="2"/>
@@ -1170,9 +1511,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
     </row>
@@ -1184,12 +1528,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <f>COUNTIF(E2:E142,"=0")</f>
+        <v>57</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -1201,8 +1551,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="F6" s="2"/>
       <c r="I6" s="2"/>
       <c r="L6" s="2"/>
@@ -1215,10 +1566,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="I7" s="2"/>
@@ -1232,8 +1586,9 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="F8" s="2"/>
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
@@ -1246,10 +1601,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="I9" s="2"/>
@@ -1263,10 +1621,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="I10" s="2"/>
@@ -1280,10 +1641,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="I11" s="2"/>
@@ -1297,10 +1661,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="2"/>
@@ -1314,10 +1681,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="I13" s="2"/>
@@ -1331,10 +1701,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
@@ -1348,10 +1721,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="I15" s="2"/>
@@ -1365,10 +1741,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="I16" s="2"/>
@@ -1378,11 +1757,17 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
+      <c r="B17" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="I17" s="2"/>
@@ -1392,11 +1777,17 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" s="2"/>
@@ -1406,11 +1797,17 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
+      <c r="B19" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
       </c>
       <c r="I19" s="2"/>
       <c r="L19" s="2"/>
@@ -1419,11 +1816,17 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>18</v>
+      <c r="B20" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
       <c r="I20" s="2"/>
       <c r="L20" s="2"/>
@@ -1432,11 +1835,17 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>19</v>
+      <c r="B21" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
       </c>
       <c r="I21" s="2"/>
       <c r="L21" s="2"/>
@@ -1445,11 +1854,17 @@
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>20</v>
+      <c r="B22" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
       </c>
       <c r="I22" s="2"/>
       <c r="L22" s="2"/>
@@ -1458,11 +1873,17 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
+      <c r="B23" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
       </c>
       <c r="I23" s="2"/>
       <c r="L23" s="2"/>
@@ -1471,11 +1892,17 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>22</v>
+      <c r="B24" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
       </c>
       <c r="I24" s="2"/>
       <c r="L24" s="2"/>
@@ -1484,11 +1911,17 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>23</v>
+      <c r="B25" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
       </c>
       <c r="I25" s="2"/>
       <c r="L25" s="2"/>
@@ -1498,11 +1931,12 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="I26" s="2"/>
       <c r="L26" s="2"/>
     </row>
@@ -1510,11 +1944,17 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>25</v>
+      <c r="B27" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
       </c>
       <c r="I27" s="2"/>
       <c r="L27" s="2"/>
@@ -1523,11 +1963,17 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>26</v>
+      <c r="B28" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
       </c>
       <c r="I28" s="2"/>
       <c r="L28" s="2"/>
@@ -1536,11 +1982,17 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
+      <c r="B29" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="L29" s="2"/>
@@ -1549,11 +2001,17 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
+      <c r="B30" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
       </c>
       <c r="I30" s="2"/>
       <c r="L30" s="2"/>
@@ -1562,11 +2020,17 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>29</v>
+      <c r="B31" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
       </c>
       <c r="I31" s="2"/>
       <c r="L31" s="2"/>
@@ -1575,11 +2039,17 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>30</v>
+      <c r="B32" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
       </c>
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
@@ -1588,11 +2058,17 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>31</v>
+      <c r="B33" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
       </c>
       <c r="I33" s="2"/>
       <c r="L33" s="2"/>
@@ -1601,11 +2077,17 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>32</v>
+      <c r="B34" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
       </c>
       <c r="I34" s="2"/>
       <c r="L34" s="2"/>
@@ -1614,11 +2096,17 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
+      <c r="B35" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
       </c>
       <c r="I35" s="2"/>
       <c r="L35" s="2"/>
@@ -1627,11 +2115,17 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>34</v>
+      <c r="B36" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
       </c>
       <c r="I36" s="2"/>
       <c r="L36" s="2"/>
@@ -1640,11 +2134,17 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
+      <c r="B37" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
       </c>
       <c r="I37" s="2"/>
       <c r="L37" s="2"/>
@@ -1653,11 +2153,17 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>36</v>
+      <c r="B38" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
       </c>
       <c r="I38" s="2"/>
       <c r="L38" s="2"/>
@@ -1666,11 +2172,17 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>37</v>
+      <c r="B39" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -1678,11 +2190,17 @@
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>38</v>
+      <c r="B40" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
       </c>
       <c r="L40" s="2"/>
     </row>
@@ -1690,22 +2208,34 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>39</v>
+      <c r="B41" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>40</v>
+      <c r="B42" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -1713,1100 +2243,1328 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>42</v>
+      <c r="B44" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>43</v>
+      <c r="B45" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>146</v>
+        <v>189</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>44</v>
+      <c r="B46" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>45</v>
+      <c r="B47" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
+      <c r="B48" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>47</v>
+      <c r="B49" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>49</v>
+      <c r="B50" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>50</v>
+      <c r="B51" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>51</v>
+      <c r="B52" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>52</v>
+      <c r="B53" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>53</v>
+      <c r="B54" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>54</v>
+      <c r="B55" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>55</v>
+      <c r="B56" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>56</v>
+      <c r="B57" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>57</v>
+      <c r="B58" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>58</v>
+      <c r="B59" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>59</v>
+      <c r="B60" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>60</v>
+      <c r="B61" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>61</v>
+      <c r="B62" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>62</v>
+      <c r="B63" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>149</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D142" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:C142" xr:uid="{3DF34FAE-E160-4D3C-ACBF-544C094D80D2}"/>
